--- a/excel/repayment_schedule_Coy56.xlsx
+++ b/excel/repayment_schedule_Coy56.xlsx
@@ -406,10 +406,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44593</v>
+        <v>44977</v>
       </c>
       <c r="C2">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44621</v>
+        <v>45005</v>
       </c>
       <c r="C3">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44652</v>
+        <v>45036</v>
       </c>
       <c r="C4">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>44682</v>
+        <v>45066</v>
       </c>
       <c r="C5">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>44713</v>
+        <v>45097</v>
       </c>
       <c r="C6">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>44743</v>
+        <v>45127</v>
       </c>
       <c r="C7">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>44774</v>
+        <v>45158</v>
       </c>
       <c r="C8">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>44805</v>
+        <v>45189</v>
       </c>
       <c r="C9">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>44835</v>
+        <v>45219</v>
       </c>
       <c r="C10">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>44866</v>
+        <v>45250</v>
       </c>
       <c r="C11">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>44896</v>
+        <v>45280</v>
       </c>
       <c r="C12">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>44927</v>
+        <v>45311</v>
       </c>
       <c r="C13">
-        <v>9166.666666666666</v>
+        <v>8750</v>
       </c>
     </row>
   </sheetData>
